--- a/FouexUpTimeTemplate.xlsx
+++ b/FouexUpTimeTemplate.xlsx
@@ -4,27 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-203" windowWidth="19493" windowHeight="12263"/>
+    <workbookView xWindow="75" yWindow="-203" windowWidth="19493" windowHeight="15788" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
     <sheet name="Today" sheetId="2" r:id="rId2"/>
-    <sheet name="Day(-1)" sheetId="3" r:id="rId3"/>
-    <sheet name="Day(-2)" sheetId="4" r:id="rId4"/>
-    <sheet name="Day(-3)" sheetId="5" r:id="rId5"/>
-    <sheet name="Day(-4)" sheetId="6" r:id="rId6"/>
-    <sheet name="Day(-5)" sheetId="7" r:id="rId7"/>
-    <sheet name="Day(-6)" sheetId="8" r:id="rId8"/>
+    <sheet name="(Day1)" sheetId="9" r:id="rId3"/>
+    <sheet name="(Day2)" sheetId="10" r:id="rId4"/>
+    <sheet name="(Day3)" sheetId="11" r:id="rId5"/>
+    <sheet name="(Day4)" sheetId="12" r:id="rId6"/>
+    <sheet name="(Day5)" sheetId="13" r:id="rId7"/>
+    <sheet name="(Day6)" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Dy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="6">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -32,64 +29,16 @@
     <t>Report Run Date</t>
   </si>
   <si>
-    <t>Kioks 1</t>
+    <t>Kioks Name</t>
   </si>
   <si>
-    <t>Kioks 2</t>
+    <t>Uptime Percentage</t>
   </si>
   <si>
-    <t>Kioks 3</t>
+    <t>Total Uptime Minutes</t>
   </si>
   <si>
-    <t>Kioks 4</t>
-  </si>
-  <si>
-    <t>Kioks 5</t>
-  </si>
-  <si>
-    <t>Kioks 6</t>
-  </si>
-  <si>
-    <t>Kioks 7</t>
-  </si>
-  <si>
-    <t>Kioks 8</t>
-  </si>
-  <si>
-    <t>Kioks 9</t>
-  </si>
-  <si>
-    <t>Kioks 10</t>
-  </si>
-  <si>
-    <t>Kioks 11</t>
-  </si>
-  <si>
-    <t>Kioks 12</t>
-  </si>
-  <si>
-    <t>Kioks 13</t>
-  </si>
-  <si>
-    <t>Kioks 14</t>
-  </si>
-  <si>
-    <t>Kioks 15</t>
-  </si>
-  <si>
-    <t>Kioks 16</t>
-  </si>
-  <si>
-    <t>Kioks 17</t>
-  </si>
-  <si>
-    <t>Kioks 18</t>
-  </si>
-  <si>
-    <t>Kioks 19</t>
-  </si>
-  <si>
-    <t>Kioks 20</t>
+    <t>Total Downtime Minutes</t>
   </si>
 </sst>
 </file>
@@ -125,10 +74,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,112 +111,165 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>All Kiosk UP Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.25796522309711284"/>
-          <c:y val="1.3888888888888888E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.5113517060367457E-2"/>
-          <c:y val="2.8252405949256341E-2"/>
-          <c:w val="0.82659623797025372"/>
-          <c:h val="0.68921660834062404"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Kiosk UP Time</c:v>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'Day(-6)'!$I$2:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>43404</c:v>
-                </c:pt>
+            <c:strRef>
+              <c:f>Totals!$I$21:$I$41</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
                 <c:pt idx="1">
-                  <c:v>43403</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43402</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43401</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43400</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43399</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43398</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Day(-6)'!$J$2:$J$8</c:f>
+              <c:f>Totals!$J$21:$J$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.89</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.67</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.55</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>95.78</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>97.67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>89.88</c:v>
+                <c:pt idx="17">
+                  <c:v>90.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86.89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,39 +284,41 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="99790848"/>
-        <c:axId val="99792384"/>
-      </c:barChart>
-      <c:dateAx>
-        <c:axId val="99790848"/>
+        <c:shape val="box"/>
+        <c:axId val="155361664"/>
+        <c:axId val="155363200"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="155361664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155363200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="155363200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99792384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="99792384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99790848"/>
+        <c:crossAx val="155361664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -341,10 +350,24 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -352,138 +375,61 @@
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Totals!$I$20:$I$39</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
+            <c:numRef>
+              <c:f>Totals!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Kioks 1</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Kioks 2</c:v>
+                  <c:v>43403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Kioks 3</c:v>
+                  <c:v>43402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kioks 4</c:v>
+                  <c:v>43401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Kioks 5</c:v>
+                  <c:v>43400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Kioks 6</c:v>
+                  <c:v>43399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Kioks 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kioks 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Kioks 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Kioks 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Kioks 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Kioks 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Kioks 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Kioks 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Kioks 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Kioks 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Kioks 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Kioks 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Kioks 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Kioks 20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totals!$J$20:$J$39</c:f>
+              <c:f>Totals!$J$3:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>99.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>98.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>94.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>95.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>97.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>99.78</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99.78</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>98.78</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>97.99</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>95.78</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>90.67</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>87.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>86.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85.89</c:v>
+                  <c:v>89.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,39 +444,42 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52916608"/>
-        <c:axId val="52918144"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="52916608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52918144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52918144"/>
+        <c:shape val="box"/>
+        <c:axId val="155731072"/>
+        <c:axId val="155732608"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:dateAx>
+        <c:axId val="155731072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52916608"/>
+        <c:crossAx val="155732608"/>
+        <c:crossesAt val="84"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="155732608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155731072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -562,111 +511,163 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>All Kiosk UP Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.25796522309711284"/>
-          <c:y val="1.3888888888888888E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.5113517060367457E-2"/>
-          <c:y val="2.8252405949256341E-2"/>
-          <c:w val="0.82659623797025372"/>
-          <c:h val="0.68921660834062404"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Kiosk UP Time</c:v>
+            <c:strRef>
+              <c:f>Today!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'Day(-6)'!$I$2:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
+            <c:strRef>
+              <c:f>Today!$I$6:$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>43404</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43403</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43402</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43401</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43400</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43399</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43398</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Day(-6)'!$J$2:$J$8</c:f>
+              <c:f>Today!$J$6:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
-                  <c:v>99.89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.88</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,39 +682,1473 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51332224"/>
-        <c:axId val="51399680"/>
+        <c:axId val="155744512"/>
+        <c:axId val="155762688"/>
       </c:barChart>
-      <c:dateAx>
-        <c:axId val="51332224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51399680"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="51399680"/>
+      <c:catAx>
+        <c:axId val="155744512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155762688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="155762688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51332224"/>
+        <c:crossAx val="155744512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day1)'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'(Day1)'!$I$6:$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day1)'!$J$6:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="155817472"/>
+        <c:axId val="155819008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="155817472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155819008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="155819008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155817472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day2)'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'(Day2)'!$I$6:$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day2)'!$J$6:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="155946368"/>
+        <c:axId val="155948160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="155946368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155948160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="155948160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155946368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day3)'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'(Day3)'!$I$6:$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day3)'!$J$6:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="155954560"/>
+        <c:axId val="156025984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="155954560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156025984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156025984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155954560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day4)'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'(Day4)'!$I$6:$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day4)'!$J$6:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="156054272"/>
+        <c:axId val="156055808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="156054272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156055808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156055808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156054272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day5)'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'(Day5)'!$I$6:$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day5)'!$J$6:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="156100864"/>
+        <c:axId val="157835264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="156100864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157835264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157835264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156100864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day6)'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'(Day6)'!$I$6:$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day6)'!$J$6:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="36439552"/>
+        <c:axId val="36441088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="36439552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36441088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="36441088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36439552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -735,22 +2170,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -767,19 +2200,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15873</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -802,19 +2235,229 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>40481</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7143</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>542923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>530223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>166685</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>476249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1119,28 +2762,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J39"/>
+  <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>43404.542060185187</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>43404</v>
       </c>
       <c r="J3">
@@ -1148,7 +2791,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>43403</v>
       </c>
       <c r="J4">
@@ -1156,7 +2799,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>43402</v>
       </c>
       <c r="J5">
@@ -1164,7 +2807,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>43401</v>
       </c>
       <c r="J6">
@@ -1172,7 +2815,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>43400</v>
       </c>
       <c r="J7">
@@ -1180,7 +2823,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>43399</v>
       </c>
       <c r="J8">
@@ -1188,32 +2831,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>43398</v>
       </c>
       <c r="J9">
         <v>89.88</v>
       </c>
     </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.45">
-      <c r="I20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.45">
-      <c r="I21" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>100</v>
-      </c>
-    </row>
     <row r="22" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -1221,7 +2848,7 @@
     </row>
     <row r="23" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -1229,7 +2856,7 @@
     </row>
     <row r="24" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -1237,7 +2864,7 @@
     </row>
     <row r="25" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -1245,7 +2872,7 @@
     </row>
     <row r="26" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>100</v>
@@ -1253,7 +2880,7 @@
     </row>
     <row r="27" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -1261,7 +2888,7 @@
     </row>
     <row r="28" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>100</v>
@@ -1269,7 +2896,7 @@
     </row>
     <row r="29" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>100</v>
@@ -1277,82 +2904,106 @@
     </row>
     <row r="30" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>99.78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>99.78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>98.78</v>
+        <v>99.78</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>97.99</v>
+        <v>99.78</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>96.9</v>
+        <v>98.78</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>95.78</v>
+        <v>97.99</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>90.67</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>87.9</v>
+        <v>95.78</v>
       </c>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>86.89</v>
+        <v>90.67</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J39">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>86.89</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>85.89</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1364,167 +3015,1469 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="9" max="9" width="30.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43404.542060185187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43404.542060185187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43404.542060185187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43404.542060185187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43404.542060185187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43404.542060185187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J16"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I2" s="1">
-        <v>43404</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I3" s="1">
-        <v>43403</v>
-      </c>
-      <c r="J3">
-        <v>99.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I4" s="1">
-        <v>43402</v>
-      </c>
-      <c r="J4">
-        <v>98.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I5" s="1">
-        <v>43401</v>
-      </c>
-      <c r="J5">
-        <v>94.55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I6" s="1">
-        <v>43400</v>
-      </c>
-      <c r="J6">
-        <v>95.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I7" s="1">
-        <v>43399</v>
-      </c>
-      <c r="J7">
-        <v>97.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I8" s="1">
-        <v>43398</v>
-      </c>
-      <c r="J8">
-        <v>89.88</v>
+      <c r="C2" s="1">
+        <v>43404.542060185187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FouexUpTimeTemplate.xlsx
+++ b/FouexUpTimeTemplate.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-203" windowWidth="19493" windowHeight="15788" activeTab="7"/>
+    <workbookView xWindow="75" yWindow="-203" windowWidth="19493" windowHeight="15788"/>
   </bookViews>
   <sheets>
-    <sheet name="Totals" sheetId="1" r:id="rId1"/>
+    <sheet name="Last 7 Days" sheetId="1" r:id="rId1"/>
     <sheet name="Today" sheetId="2" r:id="rId2"/>
     <sheet name="(Day1)" sheetId="9" r:id="rId3"/>
     <sheet name="(Day2)" sheetId="10" r:id="rId4"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="6">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -115,8 +115,7 @@
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -130,7 +129,7 @@
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -138,138 +137,61 @@
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Totals!$I$21:$I$41</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
+            <c:numRef>
+              <c:f>'Last 7 Days'!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43404</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v> </c:v>
+                  <c:v>43403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> </c:v>
+                  <c:v>43402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> </c:v>
+                  <c:v>43401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> </c:v>
+                  <c:v>43400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> </c:v>
+                  <c:v>43399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v> </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totals!$J$21:$J$41</c:f>
+              <c:f>'Last 7 Days'!$J$3:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>99.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>98.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>94.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>95.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>97.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99.78</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>99.78</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>98.78</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97.99</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>96.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>95.78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90.67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>87.9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>86.89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>85.89</c:v>
+                  <c:v>89.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -285,40 +207,41 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="155361664"/>
-        <c:axId val="155363200"/>
+        <c:axId val="159913088"/>
+        <c:axId val="159914624"/>
         <c:axId val="0"/>
       </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="155361664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155363200"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="155363200"/>
+      <c:dateAx>
+        <c:axId val="159913088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155361664"/>
+        <c:crossAx val="159914624"/>
+        <c:crossesAt val="84"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="159914624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159913088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -349,87 +272,159 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Last 7 Days'!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Totals!$I$3:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="7"/>
+            <c:strRef>
+              <c:f>'Last 7 Days'!$I$24:$I$65</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>43404</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43403</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43402</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43401</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43400</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43399</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43398</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totals!$J$3:$J$9</c:f>
+              <c:f>'Last 7 Days'!$J$24:$J$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.88</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,42 +439,40 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="155731072"/>
-        <c:axId val="155732608"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:dateAx>
-        <c:axId val="155731072"/>
+        <c:axId val="55426432"/>
+        <c:axId val="55530624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55426432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:axPos val="l"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155732608"/>
-        <c:crossesAt val="84"/>
+        <c:crossAx val="55530624"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="155732608"/>
+        <c:axId val="55530624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155731072"/>
+        <c:crossAx val="55426432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -511,6 +504,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -682,11 +676,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155744512"/>
-        <c:axId val="155762688"/>
+        <c:axId val="159926528"/>
+        <c:axId val="159952896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155744512"/>
+        <c:axId val="159926528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,7 +689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155762688"/>
+        <c:crossAx val="159952896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -703,7 +697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155762688"/>
+        <c:axId val="159952896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -715,7 +709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155744512"/>
+        <c:crossAx val="159926528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -747,6 +741,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -921,11 +916,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155817472"/>
-        <c:axId val="155819008"/>
+        <c:axId val="159879168"/>
+        <c:axId val="159880704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155817472"/>
+        <c:axId val="159879168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155819008"/>
+        <c:crossAx val="159880704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -942,7 +937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155819008"/>
+        <c:axId val="159880704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -954,7 +949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155817472"/>
+        <c:crossAx val="159879168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1160,11 +1155,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155946368"/>
-        <c:axId val="155948160"/>
+        <c:axId val="160402432"/>
+        <c:axId val="160404224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155946368"/>
+        <c:axId val="160402432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155948160"/>
+        <c:crossAx val="160404224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1181,7 +1176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155948160"/>
+        <c:axId val="160404224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1193,7 +1188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155946368"/>
+        <c:crossAx val="160402432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,11 +1394,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155954560"/>
-        <c:axId val="156025984"/>
+        <c:axId val="160477952"/>
+        <c:axId val="160479488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155954560"/>
+        <c:axId val="160477952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156025984"/>
+        <c:crossAx val="160479488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1420,7 +1415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156025984"/>
+        <c:axId val="160479488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1432,7 +1427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155954560"/>
+        <c:crossAx val="160477952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1638,11 +1633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156054272"/>
-        <c:axId val="156055808"/>
+        <c:axId val="160508160"/>
+        <c:axId val="160509952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156054272"/>
+        <c:axId val="160508160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +1646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156055808"/>
+        <c:crossAx val="160509952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1659,7 +1654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156055808"/>
+        <c:axId val="160509952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1671,7 +1666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156054272"/>
+        <c:crossAx val="160508160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1703,7 +1698,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1875,11 +1869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156100864"/>
-        <c:axId val="157835264"/>
+        <c:axId val="160516352"/>
+        <c:axId val="160223232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156100864"/>
+        <c:axId val="160516352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157835264"/>
+        <c:crossAx val="160223232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1896,7 +1890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157835264"/>
+        <c:axId val="160223232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1908,7 +1902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156100864"/>
+        <c:crossAx val="160516352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1940,7 +1934,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2115,11 +2108,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36439552"/>
-        <c:axId val="36441088"/>
+        <c:axId val="160538624"/>
+        <c:axId val="160540160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36439552"/>
+        <c:axId val="160538624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,7 +2121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36441088"/>
+        <c:crossAx val="160540160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2136,7 +2129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36441088"/>
+        <c:axId val="160540160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2148,7 +2141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36439552"/>
+        <c:crossAx val="160538624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2170,19 +2163,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>3173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2201,18 +2194,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3173</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>504824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>168273</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2762,16 +2755,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J42"/>
+  <dimension ref="A2:L42"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -2838,164 +2832,170 @@
         <v>89.88</v>
       </c>
     </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="9:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>99.78</v>
+      <c r="J32" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>99.78</v>
+      <c r="J33" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>98.78</v>
+      <c r="J34" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>97.99</v>
+      <c r="J35" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
         <v>0</v>
       </c>
-      <c r="J36">
-        <v>96.9</v>
+      <c r="J36" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>95.78</v>
+      <c r="J37" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>90.67</v>
+      <c r="J38" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>87.9</v>
+      <c r="J39" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>86.89</v>
+      <c r="J40" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>85.89</v>
+      <c r="J41" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="9:10" x14ac:dyDescent="0.45">
@@ -3018,13 +3018,13 @@
   <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
-    <col min="9" max="9" width="30.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
     <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3226,14 +3226,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -3436,14 +3435,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -3647,14 +3645,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -3863,6 +3860,7 @@
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -4065,14 +4063,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -4276,14 +4273,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">

--- a/FouexUpTimeTemplate.xlsx
+++ b/FouexUpTimeTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-203" windowWidth="19493" windowHeight="15788"/>
+    <workbookView xWindow="-30" yWindow="38" windowWidth="13958" windowHeight="12413"/>
   </bookViews>
   <sheets>
     <sheet name="Last 7 Days" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -82,6 +82,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -173,25 +176,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.89</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.67</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.55</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.78</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.67</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.88</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -207,12 +210,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="159913088"/>
-        <c:axId val="159914624"/>
+        <c:axId val="147046400"/>
+        <c:axId val="147047936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:dateAx>
-        <c:axId val="159913088"/>
+        <c:axId val="147046400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -222,14 +225,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159914624"/>
+        <c:crossAx val="147047936"/>
         <c:crossesAt val="84"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159914624"/>
+        <c:axId val="147047936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -241,7 +244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159913088"/>
+        <c:crossAx val="147046400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -300,7 +303,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Last 7 Days'!$I$24:$I$65</c:f>
+              <c:f>'Last 7 Days'!$I$24:$I$62</c:f>
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
@@ -365,10 +368,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Last 7 Days'!$J$24:$J$65</c:f>
+              <c:f>'Last 7 Days'!$J$24:$J$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -439,11 +442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="55426432"/>
-        <c:axId val="55530624"/>
+        <c:axId val="147407616"/>
+        <c:axId val="147409152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55426432"/>
+        <c:axId val="147407616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55530624"/>
+        <c:crossAx val="147409152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -460,7 +463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55530624"/>
+        <c:axId val="147409152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -472,7 +475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55426432"/>
+        <c:crossAx val="147407616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -676,11 +679,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159926528"/>
-        <c:axId val="159952896"/>
+        <c:axId val="147421440"/>
+        <c:axId val="147443712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159926528"/>
+        <c:axId val="147421440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -689,7 +692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159952896"/>
+        <c:crossAx val="147443712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -697,7 +700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159952896"/>
+        <c:axId val="147443712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -709,7 +712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159926528"/>
+        <c:crossAx val="147421440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -741,7 +744,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -916,11 +918,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159879168"/>
-        <c:axId val="159880704"/>
+        <c:axId val="147509248"/>
+        <c:axId val="147510784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159879168"/>
+        <c:axId val="147509248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159880704"/>
+        <c:crossAx val="147510784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -937,7 +939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159880704"/>
+        <c:axId val="147510784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -949,7 +951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159879168"/>
+        <c:crossAx val="147509248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1155,11 +1157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160402432"/>
-        <c:axId val="160404224"/>
+        <c:axId val="147897344"/>
+        <c:axId val="147899136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160402432"/>
+        <c:axId val="147897344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160404224"/>
+        <c:crossAx val="147899136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1176,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160404224"/>
+        <c:axId val="147899136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1188,7 +1190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160402432"/>
+        <c:crossAx val="147897344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1394,11 +1396,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160477952"/>
-        <c:axId val="160479488"/>
+        <c:axId val="147656064"/>
+        <c:axId val="147702912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160477952"/>
+        <c:axId val="147656064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160479488"/>
+        <c:crossAx val="147702912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1415,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160479488"/>
+        <c:axId val="147702912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1427,7 +1429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160477952"/>
+        <c:crossAx val="147656064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,11 +1635,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160508160"/>
-        <c:axId val="160509952"/>
+        <c:axId val="147809408"/>
+        <c:axId val="147810944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160508160"/>
+        <c:axId val="147809408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +1648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160509952"/>
+        <c:crossAx val="147810944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1654,7 +1656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160509952"/>
+        <c:axId val="147810944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1666,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160508160"/>
+        <c:crossAx val="147809408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1869,11 +1871,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160516352"/>
-        <c:axId val="160223232"/>
+        <c:axId val="148183296"/>
+        <c:axId val="148209664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160516352"/>
+        <c:axId val="148183296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160223232"/>
+        <c:crossAx val="148209664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1890,7 +1892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160223232"/>
+        <c:axId val="148209664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1902,7 +1904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160516352"/>
+        <c:crossAx val="148183296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2108,11 +2110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160538624"/>
-        <c:axId val="160540160"/>
+        <c:axId val="148234240"/>
+        <c:axId val="148235776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160538624"/>
+        <c:axId val="148234240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160540160"/>
+        <c:crossAx val="148235776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2129,7 +2131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160540160"/>
+        <c:axId val="148235776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2141,7 +2143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160538624"/>
+        <c:crossAx val="148234240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2757,9 +2759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2781,7 +2781,7 @@
         <v>43404</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -2789,7 +2789,7 @@
         <v>43403</v>
       </c>
       <c r="J4">
-        <v>99.89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -2797,7 +2797,7 @@
         <v>43402</v>
       </c>
       <c r="J5">
-        <v>98.67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -2805,7 +2805,7 @@
         <v>43401</v>
       </c>
       <c r="J6">
-        <v>94.55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -2813,7 +2813,7 @@
         <v>43400</v>
       </c>
       <c r="J7">
-        <v>95.78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -2821,7 +2821,7 @@
         <v>43399</v>
       </c>
       <c r="J8">
-        <v>97.67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
@@ -2829,7 +2829,7 @@
         <v>43398</v>
       </c>
       <c r="J9">
-        <v>89.88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="9:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -3017,9 +3017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:L4"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3035,6 +3033,7 @@
       <c r="C2" s="1">
         <v>43404.542060185187</v>
       </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
@@ -3242,6 +3241,7 @@
       <c r="C2" s="1">
         <v>43404.542060185187</v>
       </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
@@ -3427,7 +3427,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3451,6 +3452,7 @@
       <c r="C2" s="1">
         <v>43404.542060185187</v>
       </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
@@ -3661,6 +3663,7 @@
       <c r="C2" s="1">
         <v>43404.542060185187</v>
       </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
@@ -3870,6 +3873,7 @@
       <c r="C2" s="1">
         <v>43404.542060185187</v>
       </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
@@ -4079,6 +4083,7 @@
       <c r="C2" s="1">
         <v>43404.542060185187</v>
       </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
@@ -4289,6 +4294,7 @@
       <c r="C2" s="1">
         <v>43404.542060185187</v>
       </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">

--- a/FouexUpTimeTemplate.xlsx
+++ b/FouexUpTimeTemplate.xlsx
@@ -210,12 +210,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="147046400"/>
-        <c:axId val="147047936"/>
+        <c:axId val="143052800"/>
+        <c:axId val="143054336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:dateAx>
-        <c:axId val="147046400"/>
+        <c:axId val="143052800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -225,17 +225,18 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147047936"/>
+        <c:crossAx val="143054336"/>
         <c:crossesAt val="84"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147047936"/>
+        <c:axId val="143054336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -244,7 +245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147046400"/>
+        <c:crossAx val="143052800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -442,11 +443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147407616"/>
-        <c:axId val="147409152"/>
+        <c:axId val="143414016"/>
+        <c:axId val="143415552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147407616"/>
+        <c:axId val="143414016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147409152"/>
+        <c:crossAx val="143415552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -463,10 +464,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147409152"/>
+        <c:axId val="143415552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -475,7 +477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147407616"/>
+        <c:crossAx val="143414016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -507,7 +509,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -679,11 +680,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147421440"/>
-        <c:axId val="147443712"/>
+        <c:axId val="143431936"/>
+        <c:axId val="143466496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147421440"/>
+        <c:axId val="143431936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147443712"/>
+        <c:crossAx val="143466496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -700,10 +701,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147443712"/>
+        <c:axId val="143466496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -712,7 +714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147421440"/>
+        <c:crossAx val="143431936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -918,11 +920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147509248"/>
-        <c:axId val="147510784"/>
+        <c:axId val="143519744"/>
+        <c:axId val="143521280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147509248"/>
+        <c:axId val="143519744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147510784"/>
+        <c:crossAx val="143521280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -939,10 +941,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147510784"/>
+        <c:axId val="143521280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -951,7 +954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147509248"/>
+        <c:crossAx val="143519744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1157,11 +1160,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147897344"/>
-        <c:axId val="147899136"/>
+        <c:axId val="143902208"/>
+        <c:axId val="143903744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147897344"/>
+        <c:axId val="143902208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147899136"/>
+        <c:crossAx val="143903744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1178,10 +1181,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147899136"/>
+        <c:axId val="143903744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1190,7 +1194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147897344"/>
+        <c:crossAx val="143902208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1396,11 +1400,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147656064"/>
-        <c:axId val="147702912"/>
+        <c:axId val="143713408"/>
+        <c:axId val="143714944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147656064"/>
+        <c:axId val="143713408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147702912"/>
+        <c:crossAx val="143714944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1417,10 +1421,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147702912"/>
+        <c:axId val="143714944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1429,7 +1434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147656064"/>
+        <c:crossAx val="143713408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1635,11 +1640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147809408"/>
-        <c:axId val="147810944"/>
+        <c:axId val="143813248"/>
+        <c:axId val="143815040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147809408"/>
+        <c:axId val="143813248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,7 +1653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147810944"/>
+        <c:crossAx val="143815040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1656,10 +1661,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147810944"/>
+        <c:axId val="143815040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1668,7 +1674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147809408"/>
+        <c:crossAx val="143813248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1871,11 +1877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148183296"/>
-        <c:axId val="148209664"/>
+        <c:axId val="143825152"/>
+        <c:axId val="144216064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148183296"/>
+        <c:axId val="143825152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,7 +1890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148209664"/>
+        <c:crossAx val="144216064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1892,10 +1898,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148209664"/>
+        <c:axId val="144216064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1904,7 +1911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148183296"/>
+        <c:crossAx val="143825152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2110,11 +2117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148234240"/>
-        <c:axId val="148235776"/>
+        <c:axId val="144318464"/>
+        <c:axId val="144320000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148234240"/>
+        <c:axId val="144318464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148235776"/>
+        <c:crossAx val="144320000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2131,10 +2138,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148235776"/>
+        <c:axId val="144320000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2143,7 +2151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148234240"/>
+        <c:crossAx val="144318464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/FouexUpTimeTemplate.xlsx
+++ b/FouexUpTimeTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="38" windowWidth="13958" windowHeight="12413"/>
+    <workbookView xWindow="-30" yWindow="38" windowWidth="14993" windowHeight="12413"/>
   </bookViews>
   <sheets>
     <sheet name="Last 7 Days" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="8">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Total Downtime Minutes</t>
+  </si>
+  <si>
+    <t>Total Field MM Minutes</t>
+  </si>
+  <si>
+    <t>Field MM Percentage</t>
   </si>
 </sst>
 </file>
@@ -210,12 +216,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="143052800"/>
-        <c:axId val="143054336"/>
+        <c:axId val="158339072"/>
+        <c:axId val="158340608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:dateAx>
-        <c:axId val="143052800"/>
+        <c:axId val="158339072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -225,14 +231,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143054336"/>
+        <c:crossAx val="158340608"/>
         <c:crossesAt val="84"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="143054336"/>
+        <c:axId val="158340608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -245,7 +251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143052800"/>
+        <c:crossAx val="158339072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -276,16 +282,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -428,6 +430,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Last 7 Days'!$N$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Last 7 Days'!$N$24:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -443,11 +470,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143414016"/>
-        <c:axId val="143415552"/>
+        <c:overlap val="100"/>
+        <c:axId val="158381952"/>
+        <c:axId val="158383488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143414016"/>
+        <c:axId val="158381952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,7 +484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143415552"/>
+        <c:crossAx val="158383488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -464,7 +492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143415552"/>
+        <c:axId val="158383488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -477,7 +505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143414016"/>
+        <c:crossAx val="158381952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -508,15 +536,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -671,6 +696,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Today!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Today!$N$6:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -680,11 +727,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143431936"/>
-        <c:axId val="143466496"/>
+        <c:overlap val="100"/>
+        <c:axId val="158391296"/>
+        <c:axId val="158294784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143431936"/>
+        <c:axId val="158391296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143466496"/>
+        <c:crossAx val="158294784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143466496"/>
+        <c:axId val="158294784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -714,7 +762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143431936"/>
+        <c:crossAx val="158391296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -745,15 +793,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -911,6 +956,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day1)'!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day1)'!$N$6:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -920,11 +987,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143519744"/>
-        <c:axId val="143521280"/>
+        <c:overlap val="100"/>
+        <c:axId val="158741248"/>
+        <c:axId val="158742784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143519744"/>
+        <c:axId val="158741248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +1001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143521280"/>
+        <c:crossAx val="158742784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -941,7 +1009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143521280"/>
+        <c:axId val="158742784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -954,7 +1022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143519744"/>
+        <c:crossAx val="158741248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -985,15 +1053,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1151,6 +1216,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day2)'!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day2)'!$N$6:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1160,11 +1247,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143902208"/>
-        <c:axId val="143903744"/>
+        <c:overlap val="100"/>
+        <c:axId val="158796032"/>
+        <c:axId val="158810112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143902208"/>
+        <c:axId val="158796032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143903744"/>
+        <c:crossAx val="158810112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1181,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143903744"/>
+        <c:axId val="158810112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1194,7 +1282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143902208"/>
+        <c:crossAx val="158796032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1225,15 +1313,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1391,6 +1476,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day3)'!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day3)'!$N$6:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1400,11 +1507,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143713408"/>
-        <c:axId val="143714944"/>
+        <c:overlap val="100"/>
+        <c:axId val="158467968"/>
+        <c:axId val="158469504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143713408"/>
+        <c:axId val="158467968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143714944"/>
+        <c:crossAx val="158469504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143714944"/>
+        <c:axId val="158469504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1434,7 +1542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143713408"/>
+        <c:crossAx val="158467968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1465,15 +1573,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1631,6 +1736,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day4)'!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day4)'!$N$6:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1640,11 +1767,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143813248"/>
-        <c:axId val="143815040"/>
+        <c:overlap val="100"/>
+        <c:axId val="158506368"/>
+        <c:axId val="158512256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143813248"/>
+        <c:axId val="158506368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143815040"/>
+        <c:crossAx val="158512256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +1789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143815040"/>
+        <c:axId val="158512256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1674,7 +1802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143813248"/>
+        <c:crossAx val="158506368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1705,15 +1833,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1864,6 +1989,28 @@
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day5)'!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day5)'!$N$6:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1877,11 +2024,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143825152"/>
-        <c:axId val="144216064"/>
+        <c:overlap val="100"/>
+        <c:axId val="158581888"/>
+        <c:axId val="158583424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143825152"/>
+        <c:axId val="158581888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +2038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144216064"/>
+        <c:crossAx val="158583424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1898,7 +2046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144216064"/>
+        <c:axId val="158583424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1911,7 +2059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143825152"/>
+        <c:crossAx val="158581888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1942,15 +2090,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2108,6 +2253,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(Day6)'!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'(Day6)'!$N$6:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2117,11 +2284,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144318464"/>
-        <c:axId val="144320000"/>
+        <c:overlap val="100"/>
+        <c:axId val="158610560"/>
+        <c:axId val="158612096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144318464"/>
+        <c:axId val="158610560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144320000"/>
+        <c:crossAx val="158612096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2138,7 +2306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144320000"/>
+        <c:axId val="158612096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2151,7 +2319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144318464"/>
+        <c:crossAx val="158610560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2765,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -2773,7 +2941,7 @@
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
-    <col min="10" max="12" width="10.59765625" customWidth="1"/>
+    <col min="10" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -2840,7 +3008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="9:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="9:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
         <v>2</v>
       </c>
@@ -2853,8 +3021,14 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="M22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
         <v>0</v>
       </c>
@@ -2862,15 +3036,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
         <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="N24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
         <v>0</v>
       </c>
@@ -2878,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
         <v>0</v>
       </c>
@@ -2886,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
         <v>0</v>
       </c>
@@ -2894,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>0</v>
       </c>
@@ -2926,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +3200,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -3031,10 +3208,10 @@
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
-    <col min="10" max="12" width="10.59765625" customWidth="1"/>
+    <col min="10" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3043,7 +3220,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -3056,13 +3233,19 @@
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
         <v>0</v>
       </c>
@@ -3070,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
         <v>0</v>
       </c>
@@ -3078,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -3086,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
         <v>0</v>
       </c>
@@ -3118,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
         <v>0</v>
       </c>
@@ -3126,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
         <v>0</v>
       </c>
@@ -3231,7 +3414,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -3239,10 +3422,10 @@
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
-    <col min="10" max="12" width="10.59765625" customWidth="1"/>
+    <col min="10" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3251,7 +3434,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -3264,8 +3447,14 @@
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
         <v>0</v>
       </c>
@@ -3289,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -3297,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
         <v>0</v>
       </c>
@@ -3305,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
         <v>0</v>
       </c>
@@ -3321,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
         <v>0</v>
       </c>
@@ -3337,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
         <v>0</v>
       </c>
@@ -3442,7 +3631,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -3450,10 +3639,10 @@
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
-    <col min="10" max="12" width="10.59765625" customWidth="1"/>
+    <col min="10" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3462,7 +3651,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -3475,8 +3664,14 @@
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
         <v>0</v>
       </c>
@@ -3500,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
         <v>0</v>
       </c>
@@ -3516,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
         <v>0</v>
       </c>
@@ -3524,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
         <v>0</v>
       </c>
@@ -3532,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>0</v>
       </c>
@@ -3556,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3848,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -3661,10 +3856,10 @@
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
-    <col min="10" max="12" width="10.59765625" customWidth="1"/>
+    <col min="10" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3673,7 +3868,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -3686,8 +3881,14 @@
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
         <v>0</v>
       </c>
@@ -3695,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
         <v>0</v>
       </c>
@@ -3703,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
         <v>0</v>
       </c>
@@ -3711,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
         <v>0</v>
       </c>
@@ -3727,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
         <v>0</v>
       </c>
@@ -3735,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
         <v>0</v>
       </c>
@@ -3743,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
         <v>0</v>
       </c>
@@ -3751,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
         <v>0</v>
       </c>
@@ -3759,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>0</v>
       </c>
@@ -3767,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
         <v>0</v>
       </c>
@@ -3863,7 +4064,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -3871,10 +4072,10 @@
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
-    <col min="10" max="12" width="10.59765625" customWidth="1"/>
+    <col min="10" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3883,7 +4084,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -3896,8 +4097,14 @@
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
         <v>0</v>
       </c>
@@ -3905,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
         <v>0</v>
       </c>
@@ -3913,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
         <v>0</v>
       </c>
@@ -3921,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -3929,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
         <v>0</v>
       </c>
@@ -3945,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
         <v>0</v>
       </c>
@@ -3953,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
         <v>0</v>
       </c>
@@ -3961,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
         <v>0</v>
       </c>
@@ -3969,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>0</v>
       </c>
@@ -3977,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
         <v>0</v>
       </c>
@@ -4073,7 +4280,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L25"/>
+  <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -4081,10 +4288,10 @@
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
-    <col min="10" max="12" width="10.59765625" customWidth="1"/>
+    <col min="10" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4093,7 +4300,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -4106,8 +4313,14 @@
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I5" t="s">
         <v>0</v>
       </c>
@@ -4115,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
         <v>0</v>
       </c>
@@ -4123,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
         <v>0</v>
       </c>
@@ -4131,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
         <v>0</v>
       </c>
@@ -4139,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -4147,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
         <v>0</v>
       </c>
@@ -4155,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
         <v>0</v>
       </c>
@@ -4163,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
         <v>0</v>
       </c>
@@ -4171,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
         <v>0</v>
       </c>
@@ -4179,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
         <v>0</v>
       </c>
@@ -4187,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>0</v>
       </c>
@@ -4195,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
         <v>0</v>
       </c>
@@ -4284,7 +4497,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -4292,10 +4505,10 @@
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
-    <col min="10" max="12" width="10.59765625" customWidth="1"/>
+    <col min="10" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4304,7 +4517,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -4317,8 +4530,14 @@
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
         <v>0</v>
       </c>
@@ -4326,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
         <v>0</v>
       </c>
@@ -4334,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
         <v>0</v>
       </c>
@@ -4342,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -4350,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
         <v>0</v>
       </c>
@@ -4358,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
         <v>0</v>
       </c>
@@ -4366,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
         <v>0</v>
       </c>
@@ -4374,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
         <v>0</v>
       </c>
@@ -4382,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
         <v>0</v>
       </c>
@@ -4390,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>0</v>
       </c>
@@ -4398,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
         <v>0</v>
       </c>

--- a/FouexUpTimeTemplate.xlsx
+++ b/FouexUpTimeTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="10">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Field MM Percentage</t>
+  </si>
+  <si>
+    <t>UpTime</t>
+  </si>
+  <si>
+    <t>Field MM</t>
   </si>
 </sst>
 </file>
@@ -121,25 +127,11 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -206,6 +198,31 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Last 7 Days'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Field MM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Last 7 Days'!$K$3:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -215,15 +232,15 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="158339072"/>
-        <c:axId val="158340608"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:overlap val="100"/>
+        <c:axId val="113459584"/>
+        <c:axId val="113461120"/>
+      </c:barChart>
       <c:dateAx>
-        <c:axId val="158339072"/>
+        <c:axId val="113459584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="43398"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -231,18 +248,18 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158340608"/>
+        <c:crossAx val="113461120"/>
         <c:crossesAt val="84"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158340608"/>
+        <c:axId val="113461120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="95"/>
+          <c:min val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -251,7 +268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158339072"/>
+        <c:crossAx val="113459584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -471,11 +488,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158381952"/>
-        <c:axId val="158383488"/>
+        <c:axId val="113502464"/>
+        <c:axId val="113381376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158381952"/>
+        <c:axId val="113502464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,7 +501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158383488"/>
+        <c:crossAx val="113381376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -492,11 +509,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158383488"/>
+        <c:axId val="113381376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="80"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -505,7 +522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158381952"/>
+        <c:crossAx val="113502464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,11 +745,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158391296"/>
-        <c:axId val="158294784"/>
+        <c:axId val="113418624"/>
+        <c:axId val="113420160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158391296"/>
+        <c:axId val="113418624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158294784"/>
+        <c:crossAx val="113420160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -749,11 +766,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158294784"/>
+        <c:axId val="113420160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="80"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -762,7 +779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158391296"/>
+        <c:crossAx val="113418624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -988,11 +1005,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158741248"/>
-        <c:axId val="158742784"/>
+        <c:axId val="113805568"/>
+        <c:axId val="113815552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158741248"/>
+        <c:axId val="113805568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158742784"/>
+        <c:crossAx val="113815552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1009,11 +1026,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158742784"/>
+        <c:axId val="113815552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="80"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1022,7 +1039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158741248"/>
+        <c:crossAx val="113805568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1248,11 +1265,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158796032"/>
-        <c:axId val="158810112"/>
+        <c:axId val="113920256"/>
+        <c:axId val="113934336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158796032"/>
+        <c:axId val="113920256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158810112"/>
+        <c:crossAx val="113934336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,11 +1286,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158810112"/>
+        <c:axId val="113934336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="80"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1282,7 +1299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158796032"/>
+        <c:crossAx val="113920256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1508,11 +1525,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158467968"/>
-        <c:axId val="158469504"/>
+        <c:axId val="113996160"/>
+        <c:axId val="113997696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158467968"/>
+        <c:axId val="113996160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158469504"/>
+        <c:crossAx val="113997696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1529,11 +1546,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158469504"/>
+        <c:axId val="113997696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="80"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1542,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158467968"/>
+        <c:crossAx val="113996160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1768,11 +1785,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158506368"/>
-        <c:axId val="158512256"/>
+        <c:axId val="114022656"/>
+        <c:axId val="114024448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158506368"/>
+        <c:axId val="114022656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158512256"/>
+        <c:crossAx val="114024448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1789,11 +1806,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158512256"/>
+        <c:axId val="114024448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="80"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1802,7 +1819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158506368"/>
+        <c:crossAx val="114022656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2025,11 +2042,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158581888"/>
-        <c:axId val="158583424"/>
+        <c:axId val="113643520"/>
+        <c:axId val="113645056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158581888"/>
+        <c:axId val="113643520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,7 +2055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158583424"/>
+        <c:crossAx val="113645056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2046,11 +2063,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158583424"/>
+        <c:axId val="113645056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="80"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2059,10 +2076,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158581888"/>
+        <c:crossAx val="113643520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2285,11 +2308,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158610560"/>
-        <c:axId val="158612096"/>
+        <c:axId val="113684864"/>
+        <c:axId val="113686400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158610560"/>
+        <c:axId val="113684864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,7 +2321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158612096"/>
+        <c:crossAx val="113686400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2306,11 +2329,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158612096"/>
+        <c:axId val="113686400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="80"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2319,7 +2342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158610560"/>
+        <c:crossAx val="113684864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2944,15 +2967,21 @@
     <col min="10" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>43404.542060185187</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2">
         <v>43404</v>
       </c>
@@ -2960,7 +2989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2">
         <v>43403</v>
       </c>
@@ -2968,7 +2997,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2">
         <v>43402</v>
       </c>
@@ -2976,7 +3005,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2">
         <v>43401</v>
       </c>
@@ -2984,7 +3013,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2">
         <v>43400</v>
       </c>
@@ -2992,7 +3021,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2">
         <v>43399</v>
       </c>
@@ -3000,7 +3029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2">
         <v>43398</v>
       </c>
